--- a/data/case1/14/Q2_2.xlsx
+++ b/data/case1/14/Q2_2.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.27887626786323239</v>
+        <v>0.17212692718101152</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.038328348243346966</v>
+        <v>-0.041489237629498632</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999614499515</v>
+        <v>-0.0039999999770863326</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999300568447</v>
+        <v>-0.0079999999575353087</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999578240732</v>
+        <v>0.043977678806101039</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999527442469</v>
+        <v>-0.0019999999768156584</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999999001072482</v>
+        <v>-0.0099999999403852513</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999998994304562</v>
+        <v>-0.009999999938213211</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999522237744</v>
+        <v>-0.0019999999719910733</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.001999999952774445</v>
+        <v>-0.0019999999699802373</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999462528848</v>
+        <v>-0.0029999999651391107</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.018112945301759886</v>
+        <v>-0.0034999999622691291</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999415603611</v>
+        <v>-0.0034999999601970089</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.007999999911729283</v>
+        <v>-0.0079999999394422261</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999995777899642</v>
+        <v>-0.00099999997067179436</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.015550075516810313</v>
+        <v>-0.0019999999658040224</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.021460918398967799</v>
+        <v>-0.0019999999654158884</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999408673048</v>
+        <v>-0.003999999956245226</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.042763202424284774</v>
+        <v>-0.0039999999812523335</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999685438326</v>
+        <v>-0.0039999999799213981</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999682436282</v>
+        <v>-0.0039999999796958008</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999679745102</v>
+        <v>-0.0039999999795261587</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999527177152</v>
+        <v>-0.0049999999710710341</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999850500494</v>
+        <v>-0.019999999900790932</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999848504757</v>
+        <v>-0.019999999899435572</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999474406565</v>
+        <v>0.02693506368354015</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999443151566</v>
+        <v>-0.0024999999724948374</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999352986464</v>
+        <v>-0.0019999999689055414</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999998934573426</v>
+        <v>-0.0069999999422130088</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999540633731</v>
+        <v>-0.059999999701431328</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999998855756473</v>
+        <v>0.0522356490277609</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999998654158873</v>
+        <v>-0.0099999999253181926</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999999046465007</v>
+        <v>-0.039507653281411592</v>
       </c>
     </row>
   </sheetData>
